--- a/KMZI_Lab4/Graphics_Lab4.xlsx
+++ b/KMZI_Lab4/Graphics_Lab4.xlsx
@@ -5,28 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36503F00-AD54-4D9A-9B36-3053B0DD4B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2988822-C658-4200-8E5F-F91AC544A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{83DAACA7-D030-470B-BA63-03C67BE42085}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Моноалфавитный шифр" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$3:$B$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$3:$B$35</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$C$3:$C$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$C$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$C$3:$C$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$C$3:$C$35</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$E$3:$E$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$F$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$F$3:$F$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$B$3:$B$35</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$C$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Моноалфавитный шифр'!$B$3:$B$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Моноалфавитный шифр'!$C$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Моноалфавитный шифр'!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Моноалфавитный шифр'!$E$3:$E$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Моноалфавитный шифр'!$F$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Моноалфавитный шифр'!$F$3:$F$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>_x000D_</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Symbol</t>
   </si>
@@ -123,15 +115,9 @@
     <t>z</t>
   </si>
   <si>
-    <t>[x, 1]</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
@@ -145,6 +131,19 @@
   </si>
   <si>
     <t>ö</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+;29</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Open text</t>
+  </si>
+  <si>
+    <t>Cypher text</t>
   </si>
 </sst>
 </file>
@@ -223,7 +222,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -231,7 +230,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Немецкий язык</cx:v>
+          <cx:v>Открытый текст (немецкий язык)</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -251,7 +250,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Немецкий язык</a:t>
+            <a:t>Открытый текст (немецкий язык)</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -261,7 +260,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E13C508D-FB03-4B75-BF6B-DC9E8FE8861C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Appearances</cx:v>
             </cx:txData>
           </cx:tx>
@@ -314,6 +313,97 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Шифротекст (немецкий язык)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Шифротекст (немецкий язык)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{3166B8A2-34BC-4EDF-848A-6202F9A588FF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Appearances</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{20758516-59D1-4100-ABF3-78C8BEDDBF8E}">
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2" hidden="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -354,7 +444,521 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -866,16 +1470,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>13822</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369255</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12801</xdr:rowOff>
+      <xdr:rowOff>5917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635859</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180729</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -911,8 +1515,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2118349" y="198495"/>
-              <a:ext cx="7177582" cy="2772602"/>
+              <a:off x="3906369" y="186645"/>
+              <a:ext cx="5508724" cy="4873752"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-BY" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361457</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8606</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Диаграмма 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7091C07-1D43-45C0-B520-011694EA05CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9973844" y="189980"/>
+              <a:ext cx="5508131" cy="4939266"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1242,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BEB4A-FDC3-4F90-A17A-66968A6627E1}">
-  <dimension ref="B1:F52"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,259 +1940,441 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>473</v>
       </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>341</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>341</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1007</v>
       </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1007</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>247</v>
       </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>102</v>
       </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>116</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>456</v>
       </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>456</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>475</v>
       </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>475</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>109</v>
       </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>169</v>
       </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>221</v>
       </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>221</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>61</v>
       </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>228</v>
       </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>228</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>577</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>576</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>588</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>401</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>17</v>
       </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/KMZI_Lab4/Graphics_Lab4.xlsx
+++ b/KMZI_Lab4/Graphics_Lab4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2988822-C658-4200-8E5F-F91AC544A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C2A65-2F21-4108-ACEC-D53DB11549D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{83DAACA7-D030-470B-BA63-03C67BE42085}"/>
   </bookViews>
   <sheets>
     <sheet name="Моноалфавитный шифр" sheetId="1" r:id="rId1"/>
+    <sheet name="Шифр Трисемуса" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Моноалфавитный шифр'!$B$3:$B$31</definedName>
@@ -1927,7 +1928,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,4 +2386,16 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF02F33E-A090-4E67-AAAB-E8C49258D1C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KMZI_Lab4/Graphics_Lab4.xlsx
+++ b/KMZI_Lab4/Graphics_Lab4.xlsx
@@ -8,21 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valda\source\repos\semester#6\КМЗИ\KMZI_Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C2A65-2F21-4108-ACEC-D53DB11549D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8115DCF-DFB8-450B-BD68-A58FC7136982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{83DAACA7-D030-470B-BA63-03C67BE42085}"/>
   </bookViews>
   <sheets>
-    <sheet name="Моноалфавитный шифр" sheetId="1" r:id="rId1"/>
-    <sheet name="Шифр Трисемуса" sheetId="2" r:id="rId2"/>
+    <sheet name="Cyphers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Моноалфавитный шифр'!$B$3:$B$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Моноалфавитный шифр'!$C$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Моноалфавитный шифр'!$C$3:$C$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Моноалфавитный шифр'!$E$3:$E$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Моноалфавитный шифр'!$F$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Моноалфавитный шифр'!$F$3:$F$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Cyphers!$B$3:$B$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Cyphers!$B$3:$B$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Cyphers!$H$3:$H$37</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Cyphers!$I$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Cyphers!$I$3:$I$37</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Cyphers!$H$3:$H$37</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Cyphers!$I$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Cyphers!$I$3:$I$37</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Cyphers!$H$3:$H$37</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Cyphers!$I$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Cyphers!$I$3:$I$37</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Cyphers!$E$3:$E$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Cyphers!$C$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Cyphers!$F$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Cyphers!$F$3:$F$37</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Cyphers!$E$3:$E$37</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Cyphers!$F$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Cyphers!$F$3:$F$37</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Cyphers!$E$3:$E$37</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Cyphers!$F$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Cyphers!$F$3:$F$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Cyphers!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Cyphers!$C$3:$C$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Cyphers!$E$3:$E$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Cyphers!$E$3:$E$37</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Cyphers!$F$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Cyphers!$F$3:$F$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Cyphers!$F$3:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Symbol</t>
   </si>
@@ -134,24 +155,41 @@
     <t>ö</t>
   </si>
   <si>
-    <t xml:space="preserve">
-;29</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>Open text</t>
   </si>
   <si>
-    <t>Cypher text</t>
+    <t>Encrypt Monoalphabet</t>
+  </si>
+  <si>
+    <t>Encrypt Trithemius</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>' '</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,16 +207,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,17 +259,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,10 +406,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -231,7 +417,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Открытый текст (немецкий язык)</cx:v>
+          <cx:v>Открытый текст</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -251,7 +437,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Открытый текст (немецкий язык)</a:t>
+            <a:t>Открытый текст</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -261,7 +447,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E13C508D-FB03-4B75-BF6B-DC9E8FE8861C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Appearances</cx:v>
             </cx:txData>
           </cx:tx>
@@ -319,29 +505,72 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:txData>
-          <cx:v>Шифротекст (немецкий язык)</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Шифротекст </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>моноалфавитный шифр</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -349,18 +578,17 @@
                 </a:sysClr>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Шифротекст (немецкий язык)</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{3166B8A2-34BC-4EDF-848A-6202F9A588FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Appearances</cx:v>
             </cx:txData>
           </cx:tx>
@@ -397,6 +625,97 @@
   </cx:chart>
   <cx:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Шифротекст (таблица Трисемуса)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Шифротекст (таблица Трисемуса)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C382DE55-B3B2-44B5-8950-5F69E3F75CD6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Appearances</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{AAC6C54B-1D04-4F4D-8690-D1B0D4F20DF6}">
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2" hidden="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
       <a:solidFill>
         <a:schemeClr val="tx1"/>
       </a:solidFill>
@@ -451,6 +770,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -960,6 +1285,514 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1471,16 +2304,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>369255</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5091</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>5917</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68849</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180729</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12296</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10450</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1516,8 +2349,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3906369" y="186645"/>
-              <a:ext cx="5508724" cy="4873752"/>
+              <a:off x="6304769" y="309820"/>
+              <a:ext cx="6461793" cy="1817735"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1549,16 +2382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>3226</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5685</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>361457</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8606</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12295</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1594,8 +2427,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9973844" y="189980"/>
-              <a:ext cx="5508131" cy="4939266"/>
+              <a:off x="6305363" y="2302536"/>
+              <a:ext cx="6450748" cy="1814877"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-BY" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7836</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>637468</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17212</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Диаграмма 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDCEC6B-C4F7-4EE6-973E-CFD555305C7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6307514" y="4295528"/>
+              <a:ext cx="6438761" cy="1814816"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1925,477 +2836,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BEB4A-FDC3-4F90-A17A-66968A6627E1}">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.296875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="7" max="7" width="5.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:9" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>473</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>473</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>341</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1007</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>247</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>116</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>456</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>456</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>475</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>475</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>169</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>221</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>228</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>577</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>577</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>576</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>576</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>588</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>588</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>192</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>401</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>179</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>106</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="H22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="H23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>149</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>39</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="H27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="H30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="I30" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1504</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1504</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3">
+        <v>135</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="3">
+        <v>135</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>111</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="3">
+        <v>111</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3">
+        <v>111</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>129</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>129</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="3">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3">
+        <v>21</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>52</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="3">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3">
+        <v>52</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF02F33E-A090-4E67-AAAB-E8C49258D1C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>